--- a/the.dr.nefario.backside/services/test-data/sample-1.xlsx
+++ b/the.dr.nefario.backside/services/test-data/sample-1.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\barraud\Documents\tech\the-map-app-project\the.dr.nefario.backside\services\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{244EEA45-B1BB-436D-967E-536A512300E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509A162D-674E-404C-B25F-BF326CC9781A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9525" xr2:uid="{28F46CB9-8FAB-422A-8115-CFDFB1EA57DB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="2460" windowHeight="6345" xr2:uid="{28F46CB9-8FAB-422A-8115-CFDFB1EA57DB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,20 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="122">
   <si>
     <t>name</t>
   </si>
   <si>
-    <t>address</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>areaid</t>
-  </si>
-  <si>
     <t>cat1</t>
   </si>
   <si>
@@ -98,13 +90,313 @@
     <t>mobile repair</t>
   </si>
   <si>
-    <t>mobile</t>
-  </si>
-  <si>
     <t>photostat</t>
   </si>
   <si>
     <t>javal store</t>
+  </si>
+  <si>
+    <t>vista stationers</t>
+  </si>
+  <si>
+    <t>mega sports</t>
+  </si>
+  <si>
+    <t>decathalon</t>
+  </si>
+  <si>
+    <t>camping</t>
+  </si>
+  <si>
+    <t>vishal sons</t>
+  </si>
+  <si>
+    <t>general store</t>
+  </si>
+  <si>
+    <t>rama store</t>
+  </si>
+  <si>
+    <t>ragila store</t>
+  </si>
+  <si>
+    <t>department store</t>
+  </si>
+  <si>
+    <t>Nityam Departmental Store</t>
+  </si>
+  <si>
+    <t>baba mobile</t>
+  </si>
+  <si>
+    <t>mobile sale</t>
+  </si>
+  <si>
+    <t>balaji medicos</t>
+  </si>
+  <si>
+    <t>gaurav medical store</t>
+  </si>
+  <si>
+    <t>shri indra medical store</t>
+  </si>
+  <si>
+    <t>arpan medicos</t>
+  </si>
+  <si>
+    <t>Gadget Doctor</t>
+  </si>
+  <si>
+    <t>Fix Screen Pro</t>
+  </si>
+  <si>
+    <t>mobile point</t>
+  </si>
+  <si>
+    <t>mobile mantra</t>
+  </si>
+  <si>
+    <t>mobile 360</t>
+  </si>
+  <si>
+    <t>retouch</t>
+  </si>
+  <si>
+    <t>v fixit</t>
+  </si>
+  <si>
+    <t>ginny mobile repair</t>
+  </si>
+  <si>
+    <t>online street</t>
+  </si>
+  <si>
+    <t>phone recharge</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>cat4</t>
+  </si>
+  <si>
+    <t>sports</t>
+  </si>
+  <si>
+    <t>coaching classes</t>
+  </si>
+  <si>
+    <t>equipment</t>
+  </si>
+  <si>
+    <t>toy shop</t>
+  </si>
+  <si>
+    <t>toy store</t>
+  </si>
+  <si>
+    <t>stationer</t>
+  </si>
+  <si>
+    <t>book shop</t>
+  </si>
+  <si>
+    <t>tutorials</t>
+  </si>
+  <si>
+    <t>music</t>
+  </si>
+  <si>
+    <t>guitar</t>
+  </si>
+  <si>
+    <t>resturant</t>
+  </si>
+  <si>
+    <t>agarwal sweets</t>
+  </si>
+  <si>
+    <t>reliance smart</t>
+  </si>
+  <si>
+    <t>big bazaar</t>
+  </si>
+  <si>
+    <t>easy day express</t>
+  </si>
+  <si>
+    <t>more</t>
+  </si>
+  <si>
+    <t>jumbo daily needs</t>
+  </si>
+  <si>
+    <t>ginnis department store</t>
+  </si>
+  <si>
+    <t>bansal store</t>
+  </si>
+  <si>
+    <t>sai care chemst</t>
+  </si>
+  <si>
+    <t>bhoomi sports</t>
+  </si>
+  <si>
+    <t>gupta sports</t>
+  </si>
+  <si>
+    <t>prym sports worldwide</t>
+  </si>
+  <si>
+    <t>sk sports</t>
+  </si>
+  <si>
+    <t>bright rajput sports</t>
+  </si>
+  <si>
+    <t>Chhabra Enterprises</t>
+  </si>
+  <si>
+    <t>gyan mantra</t>
+  </si>
+  <si>
+    <t>kaushal tutorials</t>
+  </si>
+  <si>
+    <t>3i coaching</t>
+  </si>
+  <si>
+    <t>superior minds</t>
+  </si>
+  <si>
+    <t>ayam academty</t>
+  </si>
+  <si>
+    <t>educrafters</t>
+  </si>
+  <si>
+    <t>simply gyan tutorials</t>
+  </si>
+  <si>
+    <t>education park</t>
+  </si>
+  <si>
+    <t>anant coaching</t>
+  </si>
+  <si>
+    <t>tutors world</t>
+  </si>
+  <si>
+    <t>saluja toys</t>
+  </si>
+  <si>
+    <t>shri rajkamal enterprises</t>
+  </si>
+  <si>
+    <t>craze gift galery</t>
+  </si>
+  <si>
+    <t>grand prix toys</t>
+  </si>
+  <si>
+    <t>chuckles forever</t>
+  </si>
+  <si>
+    <t>kriti creations</t>
+  </si>
+  <si>
+    <t>shivam collections</t>
+  </si>
+  <si>
+    <t>surjeet toys</t>
+  </si>
+  <si>
+    <t>jainson toys</t>
+  </si>
+  <si>
+    <t>play rabbits</t>
+  </si>
+  <si>
+    <t>khushi toys</t>
+  </si>
+  <si>
+    <t>shagun sweets</t>
+  </si>
+  <si>
+    <t>roasted namkeen shop</t>
+  </si>
+  <si>
+    <t>indian bakers</t>
+  </si>
+  <si>
+    <t>jain traders</t>
+  </si>
+  <si>
+    <t>bansiwala sweets and snacks</t>
+  </si>
+  <si>
+    <t>shiv snacks point</t>
+  </si>
+  <si>
+    <t>south indian hot chips</t>
+  </si>
+  <si>
+    <t>jain namkeen bhandar</t>
+  </si>
+  <si>
+    <t>frontier biscuits</t>
+  </si>
+  <si>
+    <t>category</t>
+  </si>
+  <si>
+    <t>salon</t>
+  </si>
+  <si>
+    <t>beauty palour</t>
+  </si>
+  <si>
+    <t>ice cream palour</t>
+  </si>
+  <si>
+    <t>fresh look salon</t>
+  </si>
+  <si>
+    <t>lakme salon</t>
+  </si>
+  <si>
+    <t>hair art unisex salon</t>
+  </si>
+  <si>
+    <t>donna beauty salon</t>
+  </si>
+  <si>
+    <t>looks salon</t>
+  </si>
+  <si>
+    <t>frizzles salon</t>
+  </si>
+  <si>
+    <t>geetanjali salon</t>
+  </si>
+  <si>
+    <t>maharani the kitchen</t>
+  </si>
+  <si>
+    <t>jayka resturant</t>
+  </si>
+  <si>
+    <t>knight king</t>
+  </si>
+  <si>
+    <t>the cool hut</t>
+  </si>
+  <si>
+    <t>new madras café</t>
+  </si>
+  <si>
+    <t>just punjabi</t>
   </si>
 </sst>
 </file>
@@ -456,10 +748,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84F88385-6621-4399-B3A6-849F547269A6}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:B89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,11 +761,745 @@
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>68</v>
+      </c>
+      <c r="B39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>69</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>70</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>73</v>
+      </c>
+      <c r="B44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>74</v>
+      </c>
+      <c r="B45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>76</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>77</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>78</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>79</v>
+      </c>
+      <c r="B50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>80</v>
+      </c>
+      <c r="B51">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>81</v>
+      </c>
+      <c r="B52">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>82</v>
+      </c>
+      <c r="B53">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B55">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>85</v>
+      </c>
+      <c r="B57">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>86</v>
+      </c>
+      <c r="B58">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>87</v>
+      </c>
+      <c r="B59">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>88</v>
+      </c>
+      <c r="B60">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>90</v>
+      </c>
+      <c r="B62">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>92</v>
+      </c>
+      <c r="B63">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>91</v>
+      </c>
+      <c r="B64">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>93</v>
+      </c>
+      <c r="B65">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>94</v>
+      </c>
+      <c r="B66">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>96</v>
+      </c>
+      <c r="B68">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>97</v>
+      </c>
+      <c r="B69">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>98</v>
+      </c>
+      <c r="B70">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>99</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>100</v>
+      </c>
+      <c r="B72">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>102</v>
+      </c>
+      <c r="B74">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>103</v>
+      </c>
+      <c r="B75">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>104</v>
+      </c>
+      <c r="B76">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>109</v>
+      </c>
+      <c r="B77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>110</v>
+      </c>
+      <c r="B78">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>111</v>
+      </c>
+      <c r="B79">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>112</v>
+      </c>
+      <c r="B80">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>113</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>114</v>
+      </c>
+      <c r="B82">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>115</v>
+      </c>
+      <c r="B83">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>116</v>
+      </c>
+      <c r="B84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>117</v>
+      </c>
+      <c r="B85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>118</v>
+      </c>
+      <c r="B86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>119</v>
+      </c>
+      <c r="B87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>120</v>
+      </c>
+      <c r="B88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>121</v>
+      </c>
+      <c r="B89">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECDBD0E9-F2C2-4238-ACB1-637817B84911}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -483,286 +1509,139 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="B6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>7</v>
       </c>
-      <c r="B2" t="str">
-        <f ca="1">_xlfn.CONCAT("Shop No. ", RANDBETWEEN(1,100))</f>
-        <v>Shop No. 18</v>
-      </c>
-      <c r="C2" t="str">
-        <f ca="1">_xlfn.CONCAT(RANDBETWEEN(7,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), )</f>
-        <v>7781410826</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>8</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" t="str">
-        <f t="shared" ref="B3:B16" ca="1" si="0">_xlfn.CONCAT("Shop No. ", RANDBETWEEN(1,100))</f>
-        <v>Shop No. 49</v>
-      </c>
-      <c r="C3" t="str">
-        <f t="shared" ref="C3:C16" ca="1" si="1">_xlfn.CONCAT(RANDBETWEEN(7,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), RANDBETWEEN(0,9), )</f>
-        <v>7135752074</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Shop No. 33</v>
-      </c>
-      <c r="C4" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>7051524828</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Shop No. 25</v>
-      </c>
-      <c r="C5" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>7568454315</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Shop No. 32</v>
-      </c>
-      <c r="C6" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>7792076980</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Shop No. 62</v>
-      </c>
-      <c r="C7" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>7057864449</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Shop No. 61</v>
-      </c>
-      <c r="C8" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>7303222630</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Shop No. 30</v>
-      </c>
-      <c r="C9" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>8800861210</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B10" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Shop No. 46</v>
-      </c>
-      <c r="C10" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>8683183809</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B11" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Shop No. 15</v>
-      </c>
-      <c r="C11" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>8303815454</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Shop No. 47</v>
-      </c>
-      <c r="C12" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>7892654241</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B13" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Shop No. 100</v>
-      </c>
-      <c r="C13" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>7706447428</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B14" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Shop No. 24</v>
-      </c>
-      <c r="C14" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>9562747847</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Shop No. 88</v>
-      </c>
-      <c r="C15" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>7055639561</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B16" t="str">
-        <f t="shared" ca="1" si="0"/>
-        <v>Shop No. 68</v>
-      </c>
-      <c r="C16" t="str">
-        <f t="shared" ca="1" si="1"/>
-        <v>7776586126</v>
-      </c>
-      <c r="D16">
-        <v>1</v>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
